--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2907086.6284379</v>
+        <v>2902454.761408434</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8651274.294710016</v>
+        <v>8651274.294710014</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.35464426286299</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -679,40 +679,40 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.478598521151547</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -749,52 +749,52 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>13.35464426286299</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>15.16194852731947</v>
-      </c>
       <c r="U3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.58434214447045</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="U4" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.478598521151554</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>6.47859852115155</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,52 +992,52 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>13.35464426286299</v>
+      </c>
+      <c r="U6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="I6" t="n">
+      <c r="V6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>13.35464426286299</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="C7" t="n">
-        <v>15.16194852731947</v>
+        <v>13.58434214447045</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>13.58434214447045</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.01542675884</v>
+        <v>47.98931541825678</v>
       </c>
       <c r="G8" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>104.01542675884</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092872</v>
+        <v>43.62747247092896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>47.98931541825755</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255947</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125199</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.9728115139847</v>
+        <v>43.97281151398483</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>93.93904042603495</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>47.64397637520091</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.98239880211165</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>91.61678788918624</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.63438908707413</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.01542675884</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>104.01542675884</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>125.8152577453148</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.40260836685113</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187867</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.752258470135</v>
@@ -1912,7 +1912,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>81.13054509253637</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
         <v>349.2409687174131</v>
@@ -2149,7 +2149,7 @@
         <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>241.1435815093809</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>102.7673426709139</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>139.3687739767481</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444131</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>251.2117044543522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>13.03790159951642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472036</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>235.2161632582637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3319,13 +3319,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187846</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695547</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>162.7401913819064</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U40" t="n">
-        <v>75.00788511618036</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>127.5379405516743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="C2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E2" t="n">
-        <v>45.33269458673296</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="F2" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H2" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I2" t="n">
         <v>1.212955882185558</v>
@@ -4339,13 +4339,13 @@
         <v>31.23361396627811</v>
       </c>
       <c r="M2" t="n">
-        <v>46.24394300832439</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="N2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="P2" t="n">
         <v>60.64779410927788</v>
@@ -4354,28 +4354,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S2" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T2" t="n">
-        <v>60.64779410927788</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="U2" t="n">
-        <v>60.64779410927788</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="V2" t="n">
-        <v>60.64779410927788</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="W2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="X2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647888</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="C3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="D3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="E3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="F3" t="n">
-        <v>1.212955882185558</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="G3" t="n">
-        <v>1.212955882185558</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="H3" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J3" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K3" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="L3" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="M3" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="N3" t="n">
         <v>30.62713602518533</v>
@@ -4439,22 +4439,22 @@
         <v>60.64779410927788</v>
       </c>
       <c r="T3" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="U3" t="n">
-        <v>30.01759506418804</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="V3" t="n">
-        <v>30.01759506418804</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="W3" t="n">
-        <v>30.01759506418804</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="X3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.70249554164312</v>
+        <v>47.15825444982032</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="D4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="E4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="F4" t="n">
         <v>16.29603734250072</v>
@@ -4494,46 +4494,46 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>10.74933455546547</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M4" t="n">
-        <v>25.75966359751175</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N4" t="n">
-        <v>40.76999263955803</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O4" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P4" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S4" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T4" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U4" t="n">
-        <v>16.29603734250072</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.29603734250072</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="C5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="D5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="E5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="F5" t="n">
+        <v>31.8431549272754</v>
+      </c>
+      <c r="G5" t="n">
         <v>16.52805540473048</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.212955882185558</v>
-      </c>
       <c r="H5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4570,49 +4570,49 @@
         <v>1.212955882185558</v>
       </c>
       <c r="K5" t="n">
-        <v>1.212955882185558</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L5" t="n">
-        <v>1.212955882185558</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="M5" t="n">
-        <v>16.22328492423183</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="N5" t="n">
-        <v>25.46633770769475</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O5" t="n">
-        <v>40.47666674974103</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P5" t="n">
-        <v>55.48699579178731</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="Q5" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R5" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S5" t="n">
-        <v>60.64779410927788</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="T5" t="n">
-        <v>60.64779410927788</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="U5" t="n">
-        <v>45.33269458673296</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="V5" t="n">
-        <v>30.01759506418804</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="W5" t="n">
-        <v>30.01759506418804</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="X5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.47355615393395</v>
+        <v>38.78865567647887</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="E6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H6" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I6" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="J6" t="n">
-        <v>7.519576199182469</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K6" t="n">
-        <v>15.61680698313905</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="L6" t="n">
-        <v>30.62713602518533</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M6" t="n">
-        <v>30.62713602518533</v>
+        <v>31.23361396627811</v>
       </c>
       <c r="N6" t="n">
-        <v>30.62713602518533</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="O6" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P6" t="n">
         <v>60.64779410927788</v>
@@ -4670,28 +4670,28 @@
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="S6" t="n">
-        <v>45.33269458673296</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="T6" t="n">
-        <v>45.33269458673296</v>
+        <v>47.15825444982032</v>
       </c>
       <c r="U6" t="n">
         <v>31.8431549272754</v>
       </c>
       <c r="V6" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="W6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="X6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.61113686504564</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C7" t="n">
         <v>16.29603734250072</v>
@@ -4734,7 +4734,7 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M7" t="n">
-        <v>31.23361396627811</v>
+        <v>25.75966359751175</v>
       </c>
       <c r="N7" t="n">
         <v>40.76999263955803</v>
@@ -4746,31 +4746,31 @@
         <v>60.64779410927788</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="R7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W7" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X7" t="n">
-        <v>46.92623638759056</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.61113686504564</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="C8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="D8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="E8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="F8" t="n">
-        <v>218.4534094110911</v>
+        <v>113.3873217758985</v>
       </c>
       <c r="G8" t="n">
-        <v>113.3873217758991</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="H8" t="n">
-        <v>113.3873217758991</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="J8" t="n">
-        <v>90.32955945499413</v>
+        <v>111.2965066319582</v>
       </c>
       <c r="K8" t="n">
-        <v>90.32955945499413</v>
+        <v>111.2965066319582</v>
       </c>
       <c r="L8" t="n">
-        <v>121.1529330112252</v>
+        <v>142.1198801881887</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1193125648942</v>
+        <v>208.086259741857</v>
       </c>
       <c r="N8" t="n">
-        <v>258.766905484301</v>
+        <v>279.7338526612631</v>
       </c>
       <c r="O8" t="n">
-        <v>313.0864345441084</v>
+        <v>334.0533817210699</v>
       </c>
       <c r="P8" t="n">
-        <v>416.06170703536</v>
+        <v>416.0617070353578</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.06170703536</v>
+        <v>416.0617070353578</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243209</v>
+        <v>371.9935530243184</v>
       </c>
       <c r="S8" t="n">
-        <v>371.9935530243209</v>
+        <v>371.9935530243184</v>
       </c>
       <c r="T8" t="n">
-        <v>323.519497046283</v>
+        <v>371.9935530243184</v>
       </c>
       <c r="U8" t="n">
-        <v>323.519497046283</v>
+        <v>371.9935530243184</v>
       </c>
       <c r="V8" t="n">
-        <v>323.519497046283</v>
+        <v>266.9274653891271</v>
       </c>
       <c r="W8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="X8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.519497046283</v>
+        <v>161.8613777539357</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="C9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="D9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="E9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="F9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="G9" t="n">
-        <v>171.6907184506533</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="H9" t="n">
-        <v>67.14957882884053</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="K9" t="n">
-        <v>59.03062809423389</v>
+        <v>59.03062809423404</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3817942504402</v>
+        <v>116.3817942504399</v>
       </c>
       <c r="M9" t="n">
-        <v>202.6647682472509</v>
+        <v>202.6647682472502</v>
       </c>
       <c r="N9" t="n">
-        <v>305.6400407385025</v>
+        <v>305.6400407385012</v>
       </c>
       <c r="O9" t="n">
-        <v>377.6225020168658</v>
+        <v>377.622502016864</v>
       </c>
       <c r="P9" t="n">
-        <v>416.06170703536</v>
+        <v>416.0617070353578</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.06170703536</v>
+        <v>416.0617070353578</v>
       </c>
       <c r="R9" t="n">
-        <v>371.6447257081028</v>
+        <v>371.6447257081004</v>
       </c>
       <c r="S9" t="n">
-        <v>371.6447257081028</v>
+        <v>371.6447257081004</v>
       </c>
       <c r="T9" t="n">
-        <v>371.6447257081028</v>
+        <v>371.6447257081004</v>
       </c>
       <c r="U9" t="n">
-        <v>371.6447257081028</v>
+        <v>371.6447257081004</v>
       </c>
       <c r="V9" t="n">
-        <v>276.7568060858453</v>
+        <v>371.6447257081004</v>
       </c>
       <c r="W9" t="n">
-        <v>276.7568060858453</v>
+        <v>323.5194970462813</v>
       </c>
       <c r="X9" t="n">
-        <v>276.7568060858453</v>
+        <v>218.4534094110899</v>
       </c>
       <c r="Y9" t="n">
-        <v>276.7568060858453</v>
+        <v>113.3873217758985</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8634441297842</v>
+        <v>288.1326001202936</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8634441297842</v>
+        <v>218.4534094110899</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8634441297842</v>
+        <v>113.3873217758985</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8634441297842</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8634441297842</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8634441297842</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707201</v>
+        <v>8.321234140707157</v>
       </c>
       <c r="K10" t="n">
-        <v>8.321234140707201</v>
+        <v>73.53581884437487</v>
       </c>
       <c r="L10" t="n">
-        <v>18.99088107272317</v>
+        <v>176.5110913356259</v>
       </c>
       <c r="M10" t="n">
-        <v>121.9661535639748</v>
+        <v>176.5110913356259</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552264</v>
+        <v>224.9414260552248</v>
       </c>
       <c r="O10" t="n">
-        <v>327.916698546478</v>
+        <v>327.9166985464759</v>
       </c>
       <c r="P10" t="n">
-        <v>416.06170703536</v>
+        <v>416.0617070353578</v>
       </c>
       <c r="Q10" t="n">
-        <v>416.06170703536</v>
+        <v>393.198687755485</v>
       </c>
       <c r="R10" t="n">
-        <v>416.06170703536</v>
+        <v>393.198687755485</v>
       </c>
       <c r="S10" t="n">
-        <v>416.06170703536</v>
+        <v>393.198687755485</v>
       </c>
       <c r="T10" t="n">
-        <v>416.06170703536</v>
+        <v>393.198687755485</v>
       </c>
       <c r="U10" t="n">
-        <v>416.06170703536</v>
+        <v>393.198687755485</v>
       </c>
       <c r="V10" t="n">
-        <v>310.9956194001681</v>
+        <v>393.198687755485</v>
       </c>
       <c r="W10" t="n">
-        <v>310.9956194001681</v>
+        <v>393.198687755485</v>
       </c>
       <c r="X10" t="n">
-        <v>205.9295317649762</v>
+        <v>393.198687755485</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8634441297842</v>
+        <v>288.1326001202936</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.1291986799072</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>641.1291986799072</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611464</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,25 +5527,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466574</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6010,22 +6010,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.9487421954783</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C25" t="n">
-        <v>491.0125592675714</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
         <v>343.0994656851783</v>
@@ -6138,13 +6138,13 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2343.157686942974</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1834.480995310113</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V25" t="n">
-        <v>1579.796507104226</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W25" t="n">
-        <v>1290.379337067265</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X25" t="n">
-        <v>1062.389786169248</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.597207025718</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168605</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,40 +6688,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111694</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075786</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>632.7243904253734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6897,13 +6897,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1263.15498529716</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.165434399143</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>814.3728552556131</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7204,22 +7204,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>870.3164745246272</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257319</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>555.815803413396</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310027</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330921</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.695539989114</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1272.757518498397</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>1051.964939354867</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7420,7 +7420,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7438,13 +7438,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123002</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.927936255316</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2318.136881002812</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2098.535416025753</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1809.460189369951</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1554.775701164064</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1265.358531127103</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1037.368980229086</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.5764010855557</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>220.7868673978199</v>
+        <v>220.1742634169181</v>
       </c>
       <c r="N2" t="n">
-        <v>218.8410770746053</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O2" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>125.6774978810001</v>
@@ -8066,10 +8066,10 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>131.2264678239906</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N3" t="n">
-        <v>126.9119083523187</v>
+        <v>126.2993043714169</v>
       </c>
       <c r="O3" t="n">
         <v>139.8355672148734</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>135.1282394249294</v>
+        <v>140.6574822216631</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
@@ -8151,10 +8151,10 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.6920843289826</v>
+        <v>144.0794803480808</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8218,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>217.342912363454</v>
       </c>
       <c r="L5" t="n">
-        <v>213.5488567752802</v>
+        <v>228.7108053025997</v>
       </c>
       <c r="M5" t="n">
-        <v>220.7868673978199</v>
+        <v>220.1742634169181</v>
       </c>
       <c r="N5" t="n">
-        <v>213.6281494811804</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>226.149311848474</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,25 +8294,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>133.8565188748957</v>
+        <v>140.8394464083196</v>
       </c>
       <c r="L6" t="n">
-        <v>137.3604083836059</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>138.2093953574145</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>126.9119083523187</v>
       </c>
       <c r="O6" t="n">
-        <v>139.8355672148734</v>
+        <v>139.2229632339716</v>
       </c>
       <c r="P6" t="n">
-        <v>134.7518686851471</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8382,10 +8382,10 @@
         <v>140.6574822216631</v>
       </c>
       <c r="M7" t="n">
-        <v>144.1881980719757</v>
+        <v>138.658955275242</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6541045944249</v>
+        <v>133.1833473911586</v>
       </c>
       <c r="O7" t="n">
         <v>144.6920843289826</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>120.33491830071</v>
+        <v>141.5136528228963</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926398665</v>
+        <v>4.949091926399177</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>92.03617376200145</v>
+        <v>70.8574392398165</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.66341988424278</v>
+        <v>39.66341988424321</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437077</v>
+        <v>41.34161277437097</v>
       </c>
       <c r="K9" t="n">
-        <v>42.93674368175449</v>
+        <v>42.93674368175503</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759014</v>
+        <v>24.46828871759041</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,19 +8613,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>40.87044846215969</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>32.86964750522267</v>
+        <v>126.1076531206119</v>
       </c>
       <c r="M10" t="n">
-        <v>124.017386934808</v>
+        <v>20.00196017596822</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6048901739097</v>
+        <v>60.50899343486683</v>
       </c>
       <c r="O10" t="n">
-        <v>135.238443665626</v>
+        <v>135.2384436656257</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.296918293926865e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>86.4655746247236</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>126.0028419604371</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>67.48492792567599</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.04089287986326</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>78.25894333073069</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9259388694757718</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>273.1465727897277</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>51.30683507832734</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.506629716721619</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>53.48834544997025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>754875.3679904729</v>
+        <v>754875.3679904731</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661658</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661658</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
@@ -26334,25 +26334,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366689</v>
+        <v>357912.3110366679</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724493</v>
+        <v>1080121.758724495</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.310322009625711e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481986</v>
+        <v>3967.032860481935</v>
       </c>
       <c r="K3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909371</v>
+        <v>22488.01565909349</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175748</v>
+        <v>266322.5358175751</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.040816241</v>
+        <v>310629.0408162413</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.25639174422</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>8727.256391744326</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744328</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744242</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744242</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26450,16 +26450,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744126</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744324</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744368</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136611</v>
+        <v>49123.28007136605</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218040.8641095232</v>
+        <v>218040.8641095229</v>
       </c>
       <c r="C6" t="n">
-        <v>256868.9238911828</v>
+        <v>256868.9238911822</v>
       </c>
       <c r="D6" t="n">
-        <v>-19779.1275396354</v>
+        <v>-19779.12753963383</v>
       </c>
       <c r="E6" t="n">
-        <v>-503896.9352036393</v>
+        <v>-504244.3144579976</v>
       </c>
       <c r="F6" t="n">
-        <v>576224.8235208538</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="G6" t="n">
-        <v>576224.8235208541</v>
+        <v>575877.4442664974</v>
       </c>
       <c r="H6" t="n">
-        <v>576224.8235208546</v>
+        <v>575877.4442664975</v>
       </c>
       <c r="I6" t="n">
-        <v>576224.8235208545</v>
+        <v>575877.4442664968</v>
       </c>
       <c r="J6" t="n">
-        <v>572257.7906603725</v>
+        <v>571910.4114060152</v>
       </c>
       <c r="K6" t="n">
-        <v>576224.823520854</v>
+        <v>575877.444266497</v>
       </c>
       <c r="L6" t="n">
-        <v>553736.8078617605</v>
+        <v>553389.4286074035</v>
       </c>
       <c r="M6" t="n">
-        <v>309902.2877032792</v>
+        <v>309554.9084489219</v>
       </c>
       <c r="N6" t="n">
-        <v>576224.8235208542</v>
+        <v>575877.4442664972</v>
       </c>
       <c r="O6" t="n">
-        <v>576224.823520854</v>
+        <v>575877.4442664969</v>
       </c>
       <c r="P6" t="n">
-        <v>576224.8235208541</v>
+        <v>575877.4442664974</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875524</v>
+        <v>420.7129414875514</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26928,25 +26928,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.637902512032139e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.691680768427</v>
+        <v>385.6916807684261</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541214</v>
+        <v>947.2625588541225</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823152054</v>
+        <v>88.85347823151999</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.692861340809</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152054</v>
+        <v>88.85347823151976</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.692861340809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.637902512032139e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823152054</v>
+        <v>88.85347823151999</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340808</v>
+        <v>1068.692861340809</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>350.1109432436881</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5214014788485</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>216.0009472488171</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>334.0790201900936</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>131.7145681305209</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>122.1062398864198</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>96.34597857612498</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>71.64112869536793</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>184.6991524448524</v>
+        <v>186.5064567093088</v>
       </c>
       <c r="U3" t="n">
-        <v>210.7744777148743</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.611036676158</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>131.8367058784608</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.289490738636</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R4" t="n">
         <v>174.4537986637794</v>
@@ -27590,13 +27590,13 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>212.5138049577163</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
-        <v>271.1536361150023</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>236.9756947965085</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>189.8861735903263</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>125.8633331579598</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>199.3332420052463</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>236.1724412614918</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>312.5903099428155</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>363.2525021573175</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27712,10 +27712,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>96.34597857612498</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>71.64112869536793</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>80.3188953730601</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>199.8611009721718</v>
+        <v>186.5064567093088</v>
       </c>
       <c r="U6" t="n">
-        <v>212.5817819793308</v>
+        <v>210.7744777148743</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.6386386221058</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>236.5330346336001</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>164.6700316546178</v>
       </c>
       <c r="C7" t="n">
-        <v>152.0848725713084</v>
+        <v>153.6624789541574</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>65.71188435578699</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>212.1253132445667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.4227048247753</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>302.8606189828714</v>
+        <v>358.8867303234547</v>
       </c>
       <c r="G8" t="n">
-        <v>309.5960024488074</v>
+        <v>309.596002448808</v>
       </c>
       <c r="H8" t="n">
         <v>322.1536909117093</v>
       </c>
       <c r="I8" t="n">
-        <v>41.25629928714837</v>
+        <v>145.2717260459885</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>170.4793815293706</v>
       </c>
       <c r="T8" t="n">
-        <v>167.7028320298466</v>
+        <v>215.6921474481042</v>
       </c>
       <c r="U8" t="n">
         <v>251.2103482432375</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>223.7368317112955</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>245.2255419585736</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.51775689102733</v>
+        <v>62.51775689102789</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27949,10 +27949,10 @@
         <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>103.4957282255947</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.24006124125206</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.8818472307643</v>
       </c>
       <c r="V9" t="n">
-        <v>138.8615467233903</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>204.0510067857187</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>101.757558444638</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>101.6672690184649</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>98.26442229651619</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>44.6000462593729</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>42.41853588772972</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>63.86518368751848</v>
+        <v>155.4819715767047</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183923</v>
+        <v>132.6354190183924</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374336</v>
+        <v>39.72172854374348</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707398</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493427</v>
+        <v>143.1811584493428</v>
       </c>
       <c r="S10" t="n">
         <v>210.7951765807159</v>
@@ -28070,16 +28070,16 @@
         <v>286.2776477556889</v>
       </c>
       <c r="V10" t="n">
-        <v>148.122216564988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>121.6942286301971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.5692265932548</v>
+        <v>114.5692265932553</v>
       </c>
     </row>
     <row r="11">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,22 +28854,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.958507326993557e-15</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-9.947598300641403e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31074,16 +31074,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779989</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
         <v>12.16394109335884</v>
@@ -31141,7 +31141,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
         <v>17.92262575689049</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
         <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
         <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
         <v>9.899534402948818</v>
@@ -31223,10 +31223,10 @@
         <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
         <v>5.288210368587925</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487646</v>
+        <v>1.691308307487642</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405786</v>
+        <v>17.32111120405783</v>
       </c>
       <c r="I8" t="n">
-        <v>65.20416352441755</v>
+        <v>65.2041635244174</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626298</v>
+        <v>143.5476784626294</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185819</v>
+        <v>215.1407591185814</v>
       </c>
       <c r="L8" t="n">
-        <v>266.901135733857</v>
+        <v>266.9011357338564</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471404</v>
+        <v>296.9789398471397</v>
       </c>
       <c r="N8" t="n">
-        <v>301.7843695757897</v>
+        <v>301.784369575789</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932094</v>
+        <v>284.9664225932087</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521081</v>
+        <v>243.2122487521075</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902067</v>
+        <v>182.6422699902063</v>
       </c>
       <c r="R8" t="n">
-        <v>106.241645470221</v>
+        <v>106.2416454702207</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687479</v>
+        <v>38.54068805687469</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027176</v>
+        <v>7.403702116027159</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990117</v>
+        <v>0.1353046645990114</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996409</v>
+        <v>0.9049297231996389</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901796</v>
+        <v>8.739716010901777</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016308</v>
+        <v>31.15657161016301</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229592</v>
+        <v>85.49601389229572</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466719</v>
+        <v>146.1263053466715</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447291</v>
+        <v>196.4848506447286</v>
       </c>
       <c r="M9" t="n">
-        <v>229.288553110716</v>
+        <v>229.2885531107155</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421733</v>
+        <v>235.3571388421728</v>
       </c>
       <c r="O9" t="n">
-        <v>215.305801291276</v>
+        <v>215.3058012912755</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309911</v>
+        <v>172.8018872309907</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684314</v>
+        <v>115.5134853684311</v>
       </c>
       <c r="R9" t="n">
-        <v>56.18502263865843</v>
+        <v>56.1850226386583</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943192</v>
+        <v>16.80867270943188</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896797</v>
+        <v>3.647501822896789</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050272</v>
+        <v>0.05953485021050258</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.758662681370996</v>
+        <v>0.7586626813709942</v>
       </c>
       <c r="H10" t="n">
-        <v>6.74520093073486</v>
+        <v>6.745200930734844</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886596</v>
+        <v>22.81505590886591</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292941</v>
+        <v>53.63745157292929</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837569</v>
+        <v>88.14280970837549</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194661</v>
+        <v>112.7924499194658</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716371</v>
+        <v>118.9238237716368</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501635</v>
+        <v>116.0960810501632</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450568</v>
+        <v>107.2335215450566</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508843</v>
+        <v>91.75680284508822</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462041</v>
+        <v>63.52765416462026</v>
       </c>
       <c r="R10" t="n">
-        <v>34.11223292782677</v>
+        <v>34.1122329278267</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625635</v>
+        <v>13.22142145625632</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494255</v>
+        <v>3.241558729494247</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205437</v>
+        <v>0.04138160080205428</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34707,16 +34707,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M2" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.54934454641767</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8.179020993895536</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="N3" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="O3" t="n">
         <v>15.16194852731947</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>9.632705730585775</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
@@ -34871,10 +34871,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P4" t="n">
-        <v>4.9166388158319</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="M5" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="N5" t="n">
-        <v>9.336416952992847</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>8.179020993895534</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="O6" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="P6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35102,10 +35102,10 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M7" t="n">
+        <v>9.632705730585775</v>
+      </c>
+      <c r="N7" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9.632705730585775</v>
       </c>
       <c r="O7" t="n">
         <v>15.16194852731947</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82.83669223665346</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386978</v>
+        <v>31.13472076386915</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986766</v>
+        <v>66.63270661986698</v>
       </c>
       <c r="N8" t="n">
-        <v>72.37130597919878</v>
+        <v>72.3713059791981</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152269</v>
+        <v>54.86821117152201</v>
       </c>
       <c r="P8" t="n">
-        <v>104.01542675884</v>
+        <v>82.8366922366545</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>51.22161005406736</v>
+        <v>51.22161005406756</v>
       </c>
       <c r="L9" t="n">
-        <v>57.9304708648549</v>
+        <v>57.93047086485444</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869769</v>
+        <v>87.15451918869718</v>
       </c>
       <c r="N9" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683153</v>
+        <v>72.70955684683105</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666085</v>
+        <v>38.82747981666046</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>65.87331788249264</v>
       </c>
       <c r="L10" t="n">
-        <v>10.77742114345047</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="M10" t="n">
-        <v>104.01542675884</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>104.01542675884</v>
+        <v>48.91953001979687</v>
       </c>
       <c r="O10" t="n">
-        <v>104.01542675884</v>
+        <v>104.0154267588395</v>
       </c>
       <c r="P10" t="n">
-        <v>89.03536210998192</v>
+        <v>89.0353621099817</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35652,7 +35652,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683844</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295319</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683844</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_13_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2902454.761408434</v>
+        <v>2904215.291711219</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.478598521151547</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>6.47859852115155</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,58 +740,58 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="H3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.16194852731947</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="F4" t="n">
-        <v>13.58434214447045</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6.47859852115155</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="S5" t="n">
-        <v>6.478598521151554</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.35464426286299</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>13.35464426286299</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="C7" t="n">
+      <c r="F7" t="n">
         <v>13.58434214447045</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="F8" t="n">
-        <v>47.98931541825678</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>104.0154267588395</v>
+        <v>13.61142920764741</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.62747247092896</v>
+        <v>43.62747247092938</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="V8" t="n">
-        <v>104.0154267588395</v>
+        <v>27.50184046889671</v>
       </c>
       <c r="W8" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>91.61678788918495</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.97281151398483</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>47.64397637520091</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="C10" t="n">
-        <v>68.98239880211165</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="D10" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="E10" t="n">
-        <v>104.0154267588395</v>
+        <v>91.61678788918495</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.63438908707413</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>62.14989839348875</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.24570521548653</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>80.67842139643707</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>139.3687739767481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417129</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376619</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>4.019807611472036</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>13.03790159951684</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187846</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695547</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>162.7401913819064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0.2811815126425495</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="C2" t="n">
         <v>23.47355615393395</v>
@@ -4339,13 +4339,13 @@
         <v>31.23361396627811</v>
       </c>
       <c r="M2" t="n">
-        <v>45.6374650672316</v>
+        <v>46.24394300832439</v>
       </c>
       <c r="N2" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="O2" t="n">
-        <v>45.6374650672316</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P2" t="n">
         <v>60.64779410927788</v>
@@ -4360,22 +4360,22 @@
         <v>45.33269458673296</v>
       </c>
       <c r="T2" t="n">
-        <v>38.78865567647888</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="V2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="W2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="X2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.78865567647888</v>
+        <v>23.47355615393395</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C3" t="n">
-        <v>47.15825444982032</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="D3" t="n">
-        <v>47.15825444982032</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="E3" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="F3" t="n">
-        <v>47.15825444982032</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G3" t="n">
-        <v>31.8431549272754</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H3" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I3" t="n">
         <v>1.212955882185558</v>
@@ -4418,43 +4418,43 @@
         <v>1.212955882185558</v>
       </c>
       <c r="M3" t="n">
-        <v>16.22328492423183</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="N3" t="n">
+        <v>15.61680698313905</v>
+      </c>
+      <c r="O3" t="n">
         <v>30.62713602518533</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>45.6374650672316</v>
-      </c>
-      <c r="P3" t="n">
-        <v>60.64779410927788</v>
       </c>
       <c r="Q3" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S3" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y3" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D4" t="n">
-        <v>30.01759506418804</v>
+        <v>31.8431549272754</v>
       </c>
       <c r="E4" t="n">
-        <v>30.01759506418804</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="F4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="G4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="J4" t="n">
-        <v>16.29603734250072</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="K4" t="n">
         <v>1.212955882185558</v>
       </c>
       <c r="L4" t="n">
-        <v>16.22328492423183</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M4" t="n">
-        <v>31.23361396627811</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N4" t="n">
-        <v>46.24394300832439</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O4" t="n">
         <v>60.64779410927788</v>
@@ -4524,16 +4524,16 @@
         <v>45.33269458673296</v>
       </c>
       <c r="V4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.01759506418804</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="C5" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="D5" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="E5" t="n">
-        <v>38.78865567647887</v>
+        <v>23.47355615393395</v>
       </c>
       <c r="F5" t="n">
-        <v>31.8431549272754</v>
+        <v>16.52805540473048</v>
       </c>
       <c r="G5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="H5" t="n">
-        <v>16.52805540473048</v>
+        <v>1.212955882185558</v>
       </c>
       <c r="I5" t="n">
         <v>1.212955882185558</v>
@@ -4573,16 +4573,16 @@
         <v>16.22328492423183</v>
       </c>
       <c r="L5" t="n">
-        <v>31.23361396627811</v>
+        <v>16.22328492423183</v>
       </c>
       <c r="M5" t="n">
+        <v>16.22328492423183</v>
+      </c>
+      <c r="N5" t="n">
+        <v>30.62713602518533</v>
+      </c>
+      <c r="O5" t="n">
         <v>45.6374650672316</v>
-      </c>
-      <c r="N5" t="n">
-        <v>45.6374650672316</v>
-      </c>
-      <c r="O5" t="n">
-        <v>60.64779410927788</v>
       </c>
       <c r="P5" t="n">
         <v>60.64779410927788</v>
@@ -4594,25 +4594,25 @@
         <v>45.33269458673296</v>
       </c>
       <c r="S5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="T5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="U5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="V5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="W5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="X5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.78865567647887</v>
+        <v>30.01759506418804</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="C6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="D6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="E6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="F6" t="n">
-        <v>1.212955882185558</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="G6" t="n">
-        <v>1.212955882185558</v>
+        <v>30.01759506418804</v>
       </c>
       <c r="H6" t="n">
-        <v>1.212955882185558</v>
+        <v>14.70249554164312</v>
       </c>
       <c r="I6" t="n">
         <v>1.212955882185558</v>
@@ -4655,43 +4655,43 @@
         <v>16.22328492423183</v>
       </c>
       <c r="M6" t="n">
+        <v>16.22328492423183</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.22328492423183</v>
+      </c>
+      <c r="O6" t="n">
         <v>31.23361396627811</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>46.24394300832439</v>
-      </c>
-      <c r="O6" t="n">
-        <v>60.64779410927788</v>
-      </c>
-      <c r="P6" t="n">
-        <v>60.64779410927788</v>
       </c>
       <c r="Q6" t="n">
         <v>60.64779410927788</v>
       </c>
       <c r="R6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="S6" t="n">
-        <v>60.64779410927788</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="T6" t="n">
-        <v>47.15825444982032</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="U6" t="n">
-        <v>31.8431549272754</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="V6" t="n">
-        <v>16.52805540473048</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="W6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="X6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.212955882185558</v>
+        <v>45.33269458673296</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.33269458673296</v>
+      </c>
+      <c r="E7" t="n">
         <v>30.01759506418804</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.29603734250072</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16.29603734250072</v>
-      </c>
-      <c r="E7" t="n">
-        <v>16.29603734250072</v>
       </c>
       <c r="F7" t="n">
         <v>16.29603734250072</v>
@@ -4731,16 +4731,16 @@
         <v>1.212955882185558</v>
       </c>
       <c r="L7" t="n">
-        <v>16.22328492423183</v>
+        <v>15.61680698313905</v>
       </c>
       <c r="M7" t="n">
-        <v>25.75966359751175</v>
+        <v>30.62713602518533</v>
       </c>
       <c r="N7" t="n">
-        <v>40.76999263955803</v>
+        <v>45.6374650672316</v>
       </c>
       <c r="O7" t="n">
-        <v>55.7803216816043</v>
+        <v>60.64779410927788</v>
       </c>
       <c r="P7" t="n">
         <v>60.64779410927788</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
       <c r="C8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
       <c r="D8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
       <c r="E8" t="n">
-        <v>161.8613777539357</v>
+        <v>29.0156532814736</v>
       </c>
       <c r="F8" t="n">
-        <v>113.3873217758985</v>
+        <v>22.07015253227013</v>
       </c>
       <c r="G8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="H8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="J8" t="n">
-        <v>111.2965066319582</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="K8" t="n">
-        <v>111.2965066319582</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="L8" t="n">
-        <v>142.1198801881887</v>
+        <v>39.14460769693648</v>
       </c>
       <c r="M8" t="n">
-        <v>208.086259741857</v>
+        <v>105.1109872506037</v>
       </c>
       <c r="N8" t="n">
-        <v>279.7338526612631</v>
+        <v>208.0862597418538</v>
       </c>
       <c r="O8" t="n">
-        <v>334.0533817210699</v>
+        <v>262.4057888016595</v>
       </c>
       <c r="P8" t="n">
-        <v>416.0617070353578</v>
+        <v>313.0864345441039</v>
       </c>
       <c r="Q8" t="n">
-        <v>416.0617070353578</v>
+        <v>416.061707035354</v>
       </c>
       <c r="R8" t="n">
-        <v>371.9935530243184</v>
+        <v>371.9935530243142</v>
       </c>
       <c r="S8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891238</v>
       </c>
       <c r="T8" t="n">
-        <v>371.9935530243184</v>
+        <v>266.9274653891238</v>
       </c>
       <c r="U8" t="n">
-        <v>371.9935530243184</v>
+        <v>161.8613777539334</v>
       </c>
       <c r="V8" t="n">
-        <v>266.9274653891271</v>
+        <v>134.081740916664</v>
       </c>
       <c r="W8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
       <c r="X8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
       <c r="Y8" t="n">
-        <v>161.8613777539357</v>
+        <v>134.081740916664</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.321234140707157</v>
+        <v>205.9295317649732</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321234140707157</v>
+        <v>205.9295317649732</v>
       </c>
       <c r="D9" t="n">
-        <v>8.321234140707157</v>
+        <v>205.9295317649732</v>
       </c>
       <c r="E9" t="n">
-        <v>8.321234140707157</v>
+        <v>205.9295317649732</v>
       </c>
       <c r="F9" t="n">
-        <v>8.321234140707157</v>
+        <v>100.8634441297828</v>
       </c>
       <c r="G9" t="n">
-        <v>8.321234140707157</v>
+        <v>100.8634441297828</v>
       </c>
       <c r="H9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="I9" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="J9" t="n">
-        <v>8.321234140707157</v>
+        <v>50.82861038564555</v>
       </c>
       <c r="K9" t="n">
-        <v>59.03062809423404</v>
+        <v>59.0306280942344</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3817942504399</v>
+        <v>116.3817942504395</v>
       </c>
       <c r="M9" t="n">
-        <v>202.6647682472502</v>
+        <v>202.6647682472488</v>
       </c>
       <c r="N9" t="n">
-        <v>305.6400407385012</v>
+        <v>305.640040738499</v>
       </c>
       <c r="O9" t="n">
-        <v>377.622502016864</v>
+        <v>377.6225020168608</v>
       </c>
       <c r="P9" t="n">
-        <v>416.0617070353578</v>
+        <v>416.061707035354</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.0617070353578</v>
+        <v>416.061707035354</v>
       </c>
       <c r="R9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.061707035354</v>
       </c>
       <c r="S9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.061707035354</v>
       </c>
       <c r="T9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.061707035354</v>
       </c>
       <c r="U9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.061707035354</v>
       </c>
       <c r="V9" t="n">
-        <v>371.6447257081004</v>
+        <v>416.061707035354</v>
       </c>
       <c r="W9" t="n">
-        <v>323.5194970462813</v>
+        <v>416.061707035354</v>
       </c>
       <c r="X9" t="n">
-        <v>218.4534094110899</v>
+        <v>416.061707035354</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.3873217758985</v>
+        <v>310.9956194001636</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.1326001202936</v>
+        <v>310.9956194001636</v>
       </c>
       <c r="C10" t="n">
-        <v>218.4534094110899</v>
+        <v>205.9295317649732</v>
       </c>
       <c r="D10" t="n">
-        <v>113.3873217758985</v>
+        <v>100.8634441297828</v>
       </c>
       <c r="E10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="F10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="G10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="H10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="I10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="J10" t="n">
-        <v>8.321234140707157</v>
+        <v>8.32123414070708</v>
       </c>
       <c r="K10" t="n">
-        <v>73.53581884437487</v>
+        <v>18.99088107272217</v>
       </c>
       <c r="L10" t="n">
-        <v>176.5110913356259</v>
+        <v>121.9661535639723</v>
       </c>
       <c r="M10" t="n">
-        <v>176.5110913356259</v>
+        <v>121.9661535639723</v>
       </c>
       <c r="N10" t="n">
-        <v>224.9414260552248</v>
+        <v>224.9414260552224</v>
       </c>
       <c r="O10" t="n">
-        <v>327.9166985464759</v>
+        <v>327.9166985464725</v>
       </c>
       <c r="P10" t="n">
-        <v>416.0617070353578</v>
+        <v>416.061707035354</v>
       </c>
       <c r="Q10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="R10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="S10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="T10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="U10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="V10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="W10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="X10" t="n">
-        <v>393.198687755485</v>
+        <v>416.061707035354</v>
       </c>
       <c r="Y10" t="n">
-        <v>288.1326001202936</v>
+        <v>416.061707035354</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,34 +5029,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,10 +5533,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5557,10 +5557,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560544</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718132</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,37 +6697,37 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>265.0731740618515</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>97.87707477673149</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6861,49 +6861,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>189.0729639753278</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,49 +7177,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246272</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257319</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>555.815803413396</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310027</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330921</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354867</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7405,13 +7405,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7420,37 +7420,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7642,40 +7642,40 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,22 +7721,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908938</v>
@@ -7800,37 +7800,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7839,19 +7839,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>228.7108053025997</v>
       </c>
       <c r="M2" t="n">
-        <v>220.1742634169181</v>
+        <v>220.7868673978199</v>
       </c>
       <c r="N2" t="n">
-        <v>204.2917325281876</v>
+        <v>218.8410770746052</v>
       </c>
       <c r="O2" t="n">
         <v>206.3768508508745</v>
       </c>
       <c r="P2" t="n">
-        <v>226.149311848474</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
         <v>207.1020630664798</v>
@@ -8066,7 +8066,7 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
         <v>126.2993043714169</v>
@@ -8078,7 +8078,7 @@
         <v>134.7518686851471</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>145.5280738211766</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>140.6574822216631</v>
+        <v>140.0448782407613</v>
       </c>
       <c r="M4" t="n">
         <v>144.1881980719757</v>
@@ -8151,7 +8151,7 @@
         <v>133.1833473911586</v>
       </c>
       <c r="O4" t="n">
-        <v>144.0794803480808</v>
+        <v>144.6920843289826</v>
       </c>
       <c r="P4" t="n">
         <v>130.0899244982092</v>
@@ -8221,19 +8221,19 @@
         <v>217.342912363454</v>
       </c>
       <c r="L5" t="n">
-        <v>228.7108053025997</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>220.1742634169181</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>204.2917325281876</v>
+        <v>218.8410770746052</v>
       </c>
       <c r="O5" t="n">
         <v>221.538799378194</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>226.149311848474</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8303,19 +8303,19 @@
         <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
-        <v>138.2093953574145</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>126.9119083523187</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>139.2229632339716</v>
+        <v>139.8355672148734</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>134.7518686851471</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>144.9154698402748</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,10 +8379,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>140.6574822216631</v>
+        <v>140.0448782407613</v>
       </c>
       <c r="M7" t="n">
-        <v>138.658955275242</v>
+        <v>144.1881980719757</v>
       </c>
       <c r="N7" t="n">
         <v>133.1833473911586</v>
@@ -8391,7 +8391,7 @@
         <v>144.6920843289826</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>141.5136528228963</v>
+        <v>37.49822606405741</v>
       </c>
       <c r="K8" t="n">
-        <v>4.949091926399177</v>
+        <v>4.949091926400001</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>31.6441207796416</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>70.8574392398165</v>
+        <v>39.21331846017751</v>
       </c>
       <c r="Q8" t="n">
-        <v>39.66341988424321</v>
+        <v>143.6788466430824</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>41.34161277437097</v>
+        <v>84.27835645612734</v>
       </c>
       <c r="K9" t="n">
-        <v>42.93674368175503</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.46828871759041</v>
+        <v>24.46828871759087</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,19 +8613,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>51.64786960560981</v>
       </c>
       <c r="L10" t="n">
-        <v>126.1076531206119</v>
+        <v>126.1076531206114</v>
       </c>
       <c r="M10" t="n">
-        <v>20.00196017596822</v>
+        <v>20.00196017596868</v>
       </c>
       <c r="N10" t="n">
-        <v>60.50899343486683</v>
+        <v>115.6048901739089</v>
       </c>
       <c r="O10" t="n">
-        <v>135.2384436656257</v>
+        <v>135.2384436656251</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.136594450213864e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.4655746247236</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>186.1428431935221</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>127.256811246707</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.506629716721619</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462241</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>285.9032928766016</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>754875.3679904731</v>
+        <v>754875.3679904732</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734361.2112661657</v>
+        <v>734361.2112661656</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734361.2112661656</v>
+        <v>734361.2112661657</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846405</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846404</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846414</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>357912.3110366679</v>
+        <v>357912.3110366662</v>
       </c>
       <c r="E3" t="n">
-        <v>1080121.758724495</v>
+        <v>1080121.758724496</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.310322009625711e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3967.032860481935</v>
+        <v>3967.032860481926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22488.01565909349</v>
+        <v>22488.01565909332</v>
       </c>
       <c r="M3" t="n">
-        <v>266322.5358175751</v>
+        <v>266322.5358175753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7.958078640513122e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>405703.6705393202</v>
       </c>
       <c r="D4" t="n">
-        <v>310629.0408162413</v>
+        <v>310629.0408162418</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.25639174422</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744242</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744326</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744202</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744126</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744326</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>35312.90995413795</v>
       </c>
       <c r="D5" t="n">
-        <v>49123.28007136605</v>
+        <v>49123.28007136596</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>218040.8641095229</v>
+        <v>218040.864109523</v>
       </c>
       <c r="C6" t="n">
-        <v>256868.9238911822</v>
+        <v>256868.9238911823</v>
       </c>
       <c r="D6" t="n">
-        <v>-19779.12753963383</v>
+        <v>-19779.12753963339</v>
       </c>
       <c r="E6" t="n">
-        <v>-504244.3144579976</v>
+        <v>-503931.6731290779</v>
       </c>
       <c r="F6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="G6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="H6" t="n">
-        <v>575877.4442664975</v>
+        <v>576190.0855954182</v>
       </c>
       <c r="I6" t="n">
-        <v>575877.4442664968</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="J6" t="n">
-        <v>571910.4114060152</v>
+        <v>572223.0527349366</v>
       </c>
       <c r="K6" t="n">
-        <v>575877.444266497</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="L6" t="n">
-        <v>553389.4286074035</v>
+        <v>553702.0699363253</v>
       </c>
       <c r="M6" t="n">
-        <v>309554.9084489219</v>
+        <v>309867.5497778428</v>
       </c>
       <c r="N6" t="n">
-        <v>575877.4442664972</v>
+        <v>576190.0855954185</v>
       </c>
       <c r="O6" t="n">
-        <v>575877.4442664969</v>
+        <v>576190.0855954187</v>
       </c>
       <c r="P6" t="n">
-        <v>575877.4442664974</v>
+        <v>576190.0855954185</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>420.7129414875514</v>
+        <v>420.7129414875498</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="D4" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.637902512032139e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>385.6916807684261</v>
+        <v>385.6916807684244</v>
       </c>
       <c r="E3" t="n">
-        <v>947.2625588541225</v>
+        <v>947.2625588541242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>88.85347823151999</v>
+        <v>88.85347823151903</v>
       </c>
       <c r="E4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.16194852731951</v>
+        <v>15.16194852731928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151976</v>
+        <v>88.85347823151858</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.637902512032139e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>88.85347823151999</v>
+        <v>88.85347823151903</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.692861340809</v>
+        <v>1068.69286134081</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>350.1109432436881</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27432,10 +27432,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>216.0009472488171</v>
+        <v>207.3175972426492</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>244.8557912676597</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27460,25 +27460,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>159.3538547254527</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>132.2831170373193</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>142.4831319280815</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.1062398864198</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>96.34597857612498</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>71.64112869536793</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>80.3188953730601</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>186.5064567093088</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>135.2608287553494</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>131.2720141192497</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8367058784608</v>
+        <v>130.2590994956118</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27563,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V4" t="n">
-        <v>236.9756947965085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>358.794293249856</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>189.8861735903263</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>125.8633331579598</v>
       </c>
       <c r="S5" t="n">
-        <v>199.3332420052463</v>
+        <v>190.6498919990783</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>129.9072638660644</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>96.34597857612498</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>73.4484329598244</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>80.3188953730601</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>186.5064567093088</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>210.7744777148743</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>217.6386386221058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>236.5330346336001</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.6700316546178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.6624789541574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>131.2720141192497</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.8367058784608</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>277.9149433134233</v>
       </c>
       <c r="F8" t="n">
-        <v>358.8867303234547</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>309.596002448808</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>322.1536909117093</v>
+        <v>322.1536909117094</v>
       </c>
       <c r="I8" t="n">
-        <v>145.2717260459885</v>
+        <v>145.2717260459888</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.4793815293706</v>
+        <v>66.46395477053231</v>
       </c>
       <c r="T8" t="n">
         <v>215.6921474481042</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2103482432375</v>
+        <v>147.194921484399</v>
       </c>
       <c r="V8" t="n">
-        <v>223.7368317112955</v>
+        <v>300.2504180012382</v>
       </c>
       <c r="W8" t="n">
-        <v>245.2255419585736</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.51775689102789</v>
+        <v>62.51775689102884</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>41.05378563454538</v>
       </c>
       <c r="G9" t="n">
         <v>136.438587440011</v>
       </c>
       <c r="H9" t="n">
-        <v>103.4957282255947</v>
+        <v>11.87894033640977</v>
       </c>
       <c r="I9" t="n">
-        <v>58.24006124125206</v>
+        <v>58.24006124125219</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.97281151398505</v>
       </c>
       <c r="S9" t="n">
-        <v>154.8744983944059</v>
+        <v>154.874498394406</v>
       </c>
       <c r="T9" t="n">
         <v>196.5172268719248</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>204.0510067857187</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>101.757558444638</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>101.6672690184649</v>
+        <v>101.6672690184659</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>75.8165534230988</v>
       </c>
       <c r="C10" t="n">
-        <v>98.26442229651619</v>
+        <v>63.23139433978933</v>
       </c>
       <c r="D10" t="n">
-        <v>44.6000462593729</v>
+        <v>44.60004625937385</v>
       </c>
       <c r="E10" t="n">
-        <v>42.41853588772972</v>
+        <v>54.81717475738422</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.2323166770878</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4819715767047</v>
+        <v>155.4819715767048</v>
       </c>
       <c r="I10" t="n">
-        <v>132.6354190183924</v>
+        <v>132.6354190183925</v>
       </c>
       <c r="J10" t="n">
-        <v>39.72172854374348</v>
+        <v>39.72172854374369</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.63438908707437</v>
       </c>
       <c r="R10" t="n">
-        <v>143.1811584493428</v>
+        <v>143.1811584493429</v>
       </c>
       <c r="S10" t="n">
-        <v>210.7951765807159</v>
+        <v>210.795176580716</v>
       </c>
       <c r="T10" t="n">
         <v>224.7040306987872</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>114.5692265932553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>-7.958507326993557e-15</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-9.947598300641403e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691308307487642</v>
+        <v>1.691308307487636</v>
       </c>
       <c r="H8" t="n">
-        <v>17.32111120405783</v>
+        <v>17.32111120405776</v>
       </c>
       <c r="I8" t="n">
-        <v>65.2041635244174</v>
+        <v>65.20416352441715</v>
       </c>
       <c r="J8" t="n">
-        <v>143.5476784626294</v>
+        <v>143.5476784626289</v>
       </c>
       <c r="K8" t="n">
-        <v>215.1407591185814</v>
+        <v>215.1407591185805</v>
       </c>
       <c r="L8" t="n">
-        <v>266.9011357338564</v>
+        <v>266.9011357338553</v>
       </c>
       <c r="M8" t="n">
-        <v>296.9789398471397</v>
+        <v>296.9789398471386</v>
       </c>
       <c r="N8" t="n">
-        <v>301.784369575789</v>
+        <v>301.7843695757878</v>
       </c>
       <c r="O8" t="n">
-        <v>284.9664225932087</v>
+        <v>284.9664225932077</v>
       </c>
       <c r="P8" t="n">
-        <v>243.2122487521075</v>
+        <v>243.2122487521066</v>
       </c>
       <c r="Q8" t="n">
-        <v>182.6422699902063</v>
+        <v>182.6422699902056</v>
       </c>
       <c r="R8" t="n">
-        <v>106.2416454702207</v>
+        <v>106.2416454702203</v>
       </c>
       <c r="S8" t="n">
-        <v>38.54068805687469</v>
+        <v>38.54068805687454</v>
       </c>
       <c r="T8" t="n">
-        <v>7.403702116027159</v>
+        <v>7.40370211602713</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1353046645990114</v>
+        <v>0.1353046645990109</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9049297231996389</v>
+        <v>0.9049297231996354</v>
       </c>
       <c r="H9" t="n">
-        <v>8.739716010901777</v>
+        <v>8.739716010901743</v>
       </c>
       <c r="I9" t="n">
-        <v>31.15657161016301</v>
+        <v>31.15657161016289</v>
       </c>
       <c r="J9" t="n">
-        <v>85.49601389229572</v>
+        <v>85.49601389229538</v>
       </c>
       <c r="K9" t="n">
-        <v>146.1263053466715</v>
+        <v>146.126305346671</v>
       </c>
       <c r="L9" t="n">
-        <v>196.4848506447286</v>
+        <v>196.4848506447279</v>
       </c>
       <c r="M9" t="n">
-        <v>229.2885531107155</v>
+        <v>229.2885531107146</v>
       </c>
       <c r="N9" t="n">
-        <v>235.3571388421728</v>
+        <v>235.3571388421718</v>
       </c>
       <c r="O9" t="n">
-        <v>215.3058012912755</v>
+        <v>215.3058012912746</v>
       </c>
       <c r="P9" t="n">
-        <v>172.8018872309907</v>
+        <v>172.80188723099</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.5134853684311</v>
+        <v>115.5134853684307</v>
       </c>
       <c r="R9" t="n">
-        <v>56.1850226386583</v>
+        <v>56.18502263865808</v>
       </c>
       <c r="S9" t="n">
-        <v>16.80867270943188</v>
+        <v>16.80867270943181</v>
       </c>
       <c r="T9" t="n">
-        <v>3.647501822896789</v>
+        <v>3.647501822896774</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05953485021050258</v>
+        <v>0.05953485021050235</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7586626813709942</v>
+        <v>0.7586626813709912</v>
       </c>
       <c r="H10" t="n">
-        <v>6.745200930734844</v>
+        <v>6.745200930734819</v>
       </c>
       <c r="I10" t="n">
-        <v>22.81505590886591</v>
+        <v>22.81505590886582</v>
       </c>
       <c r="J10" t="n">
-        <v>53.63745157292929</v>
+        <v>53.63745157292908</v>
       </c>
       <c r="K10" t="n">
-        <v>88.14280970837549</v>
+        <v>88.14280970837515</v>
       </c>
       <c r="L10" t="n">
-        <v>112.7924499194658</v>
+        <v>112.7924499194654</v>
       </c>
       <c r="M10" t="n">
-        <v>118.9238237716368</v>
+        <v>118.9238237716364</v>
       </c>
       <c r="N10" t="n">
-        <v>116.0960810501632</v>
+        <v>116.0960810501628</v>
       </c>
       <c r="O10" t="n">
-        <v>107.2335215450566</v>
+        <v>107.2335215450561</v>
       </c>
       <c r="P10" t="n">
-        <v>91.75680284508822</v>
+        <v>91.75680284508785</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.52765416462026</v>
+        <v>63.52765416462001</v>
       </c>
       <c r="R10" t="n">
-        <v>34.1122329278267</v>
+        <v>34.11223292782656</v>
       </c>
       <c r="S10" t="n">
-        <v>13.22142145625632</v>
+        <v>13.22142145625627</v>
       </c>
       <c r="T10" t="n">
-        <v>3.241558729494247</v>
+        <v>3.241558729494235</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04138160080205428</v>
+        <v>0.04138160080205412</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107744</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121648</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192562</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>15.16194852731947</v>
       </c>
       <c r="M2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="N2" t="n">
         <v>14.54934454641767</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>14.54934454641767</v>
@@ -34798,7 +34798,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.16194852731947</v>
+        <v>14.54934454641767</v>
       </c>
       <c r="M4" t="n">
         <v>15.16194852731947</v>
@@ -34871,7 +34871,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="O4" t="n">
-        <v>14.54934454641767</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34941,19 +34941,19 @@
         <v>15.16194852731947</v>
       </c>
       <c r="L5" t="n">
-        <v>15.16194852731947</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>15.16194852731947</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>15.16194852731947</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>14.54934454641767</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,10 +35099,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>14.54934454641767</v>
+      </c>
+      <c r="M7" t="n">
         <v>15.16194852731947</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.632705730585775</v>
       </c>
       <c r="N7" t="n">
         <v>15.16194852731947</v>
@@ -35111,7 +35111,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="P7" t="n">
-        <v>4.916638815831901</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>104.0154267588395</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>31.13472076386915</v>
+        <v>31.13472076386807</v>
       </c>
       <c r="M8" t="n">
-        <v>66.63270661986698</v>
+        <v>66.63270661986584</v>
       </c>
       <c r="N8" t="n">
-        <v>72.3713059791981</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="O8" t="n">
-        <v>54.86821117152201</v>
+        <v>54.86821117152093</v>
       </c>
       <c r="P8" t="n">
-        <v>82.8366922366545</v>
+        <v>51.19257145701457</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>42.93674368175603</v>
       </c>
       <c r="K9" t="n">
-        <v>51.22161005406756</v>
+        <v>8.284866372311967</v>
       </c>
       <c r="L9" t="n">
-        <v>57.93047086485444</v>
+        <v>57.93047086485367</v>
       </c>
       <c r="M9" t="n">
-        <v>87.15451918869718</v>
+        <v>87.15451918869627</v>
       </c>
       <c r="N9" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="O9" t="n">
-        <v>72.70955684683105</v>
+        <v>72.7095568468302</v>
       </c>
       <c r="P9" t="n">
-        <v>38.82747981666046</v>
+        <v>38.82747981665977</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>65.87331788249264</v>
+        <v>10.77742114344959</v>
       </c>
       <c r="L10" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>48.91953001979687</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="O10" t="n">
-        <v>104.0154267588395</v>
+        <v>104.0154267588385</v>
       </c>
       <c r="P10" t="n">
-        <v>89.0353621099817</v>
+        <v>89.03536210998134</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M11" t="n">
         <v>735.300110790295</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462684</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
         <v>735.300110790295</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378059</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35980,7 +35980,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902399</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359229</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
